--- a/S2/Gestion de projet et entrepreunariat/Modèle-plan-action.xlsx
+++ b/S2/Gestion de projet et entrepreunariat/Modèle-plan-action.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julie\Desktop\DUT MMI\Cours DUT MMI\S2\Gestion de projet et entrepreunariat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julie\Desktop\DUT MMI\Cours DUT MMI\S2\Environnement juridique et mercatique des organisations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A50FD457-6C37-4FEA-93AF-9280A5FF5687}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{441F5A22-39CE-4199-BA6E-EB3300A394F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -823,7 +823,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
